--- a/data/origin.model.formulas.xlsx
+++ b/data/origin.model.formulas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorui/Documents/GitHub/FinlandAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834B2B7E-3BC8-4545-AAAC-AB8657BC20EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E93D1EA-A103-D743-B895-D57320865DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aic.models2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="418">
   <si>
     <t>V1</t>
   </si>
@@ -1267,12 +1267,21 @@
   </si>
   <si>
     <t xml:space="preserve">nind.func.brepl.glmm = glmmTMB(nind.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t>hist(</t>
+  </si>
+  <si>
+    <t>Results2$</t>
+  </si>
+  <si>
+    <t>"nbinom1"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2135,7 +2144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4123,11 +4132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U52"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,9 +4149,8 @@
     <col min="17" max="17" width="28" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="4.1640625" customWidth="1"/>
-    <col min="21" max="21" width="140.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="140.1640625" customWidth="1"/>
+    <col min="21" max="21" width="112.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -4221,7 +4229,7 @@
         <v>328</v>
       </c>
       <c r="O2" t="str">
-        <f xml:space="preserve"> CONCATENATE(B2, ".glmm")</f>
+        <f t="shared" ref="O2:O33" si="0" xml:space="preserve"> CONCATENATE(B2, ".glmm")</f>
         <v>TAlphaAll.glmm</v>
       </c>
       <c r="P2" t="str">
@@ -4239,12 +4247,13 @@
       <c r="S2" t="s">
         <v>324</v>
       </c>
-      <c r="T2" t="s">
-        <v>320</v>
-      </c>
-      <c r="U2" t="str">
+      <c r="T2" t="str">
         <f>CONCATENATE(O2,$N$3,$N$2,B2,$N$4,P2,Q2,R2,$N$6,$N$7,S2,$N$8)</f>
         <v xml:space="preserve">TAlphaAll.glmm = glmmTMB(TAlphaAll ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U2" t="str">
+        <f>CONCATENATE($N$12,$N$13,B2,$N$8)</f>
+        <v xml:space="preserve">hist(Results2$TAlphaAll) </v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -4288,30 +4297,31 @@
         <v>327</v>
       </c>
       <c r="O3" t="str">
-        <f xml:space="preserve"> CONCATENATE(B3, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>TAlphaNat.glmm</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P52" si="0">IF(E3="NA"," ",$N$9)</f>
+        <f t="shared" ref="P3:P52" si="1">IF(E3="NA"," ",$N$9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q52" si="1">IF(F3="NA"," ",$N$10)</f>
+        <f t="shared" ref="Q3:Q52" si="2">IF(F3="NA"," ",$N$10)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R52" si="2">IF(G3="NA"," ",$N$11)</f>
+        <f t="shared" ref="R3:R52" si="3">IF(G3="NA"," ",$N$11)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S3" t="s">
         <v>324</v>
       </c>
-      <c r="T3" t="s">
-        <v>320</v>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T52" si="4">CONCATENATE(O3,$N$3,$N$2,B3,$N$4,P3,Q3,R3,$N$6,$N$7,S3,$N$8)</f>
+        <v xml:space="preserve">TAlphaNat.glmm = glmmTMB(TAlphaNat ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U52" si="3">CONCATENATE(O3,$N$3,$N$2,B3,$N$4,P3,Q3,R3,$N$6,$N$7,S3,$N$8)</f>
-        <v xml:space="preserve">TAlphaNat.glmm = glmmTMB(TAlphaNat ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" ref="U3:U52" si="5">CONCATENATE($N$12,$N$13,B3,$N$8)</f>
+        <v xml:space="preserve">hist(Results2$TAlphaNat) </v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -4355,30 +4365,31 @@
         <v>319</v>
       </c>
       <c r="O4" t="str">
-        <f xml:space="preserve"> CONCATENATE(B4, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>TAlphaNInd.glmm</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S4" t="s">
         <v>324</v>
       </c>
-      <c r="T4" t="s">
-        <v>320</v>
+      <c r="T4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -4422,30 +4433,31 @@
         <v>321</v>
       </c>
       <c r="O5" t="str">
-        <f xml:space="preserve"> CONCATENATE(B5, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>TAlphaNInd.glmm</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S5" t="s">
         <v>324</v>
       </c>
-      <c r="T5" t="s">
-        <v>320</v>
+      <c r="T5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -4489,30 +4501,31 @@
         <v>322</v>
       </c>
       <c r="O6" t="str">
-        <f xml:space="preserve"> CONCATENATE(B6, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>TAlphaNInd.glmm</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S6" t="s">
         <v>324</v>
       </c>
-      <c r="T6" t="s">
-        <v>320</v>
+      <c r="T6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -4556,7 +4569,7 @@
         <v>323</v>
       </c>
       <c r="O7" t="str">
-        <f xml:space="preserve"> CONCATENATE(B7, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>TAlphaNInd.glmm</v>
       </c>
       <c r="P7" t="str">
@@ -4564,22 +4577,23 @@
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S7" t="s">
         <v>324</v>
       </c>
-      <c r="T7" t="s">
-        <v>320</v>
+      <c r="T7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TAlphaNInd.glmm = glmmTMB(TAlphaNInd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -4623,30 +4637,31 @@
         <v>320</v>
       </c>
       <c r="O8" t="str">
-        <f xml:space="preserve"> CONCATENATE(B8, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>FAlphaAll.glmm</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S8" t="s">
         <v>325</v>
       </c>
-      <c r="T8" t="s">
-        <v>320</v>
+      <c r="T8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">FAlphaAll.glmm = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">FAlphaAll.glmm = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -4690,30 +4705,31 @@
         <v>374</v>
       </c>
       <c r="O9" t="str">
-        <f xml:space="preserve"> CONCATENATE(B9, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>FAlphaAll.glmm</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S9" t="s">
         <v>325</v>
       </c>
-      <c r="T9" t="s">
-        <v>320</v>
+      <c r="T9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">FAlphaAll.glmm = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">FAlphaAll.glmm = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -4757,30 +4773,31 @@
         <v>375</v>
       </c>
       <c r="O10" t="str">
-        <f xml:space="preserve"> CONCATENATE(B10, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>FAlphaNat.glmm</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S10" t="s">
         <v>325</v>
       </c>
-      <c r="T10" t="s">
-        <v>320</v>
+      <c r="T10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">FAlphaNat.glmm = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">FAlphaNat.glmm = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$FAlphaNat) </v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -4824,30 +4841,31 @@
         <v>376</v>
       </c>
       <c r="O11" t="str">
-        <f xml:space="preserve"> CONCATENATE(B11, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>FAlphaNInd.glmm</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S11" t="s">
-        <v>326</v>
-      </c>
-      <c r="T11" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">FAlphaNInd.glmm = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">FAlphaNInd.glmm = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$FAlphaNInd) </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -4887,31 +4905,35 @@
       <c r="L12" t="s">
         <v>69</v>
       </c>
+      <c r="N12" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="O12" t="str">
-        <f xml:space="preserve"> CONCATENATE(B12, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>abund.all.glmm</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S12" t="s">
-        <v>324</v>
-      </c>
-      <c r="T12" t="s">
-        <v>320</v>
+        <v>417</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">abund.all.glmm = glmmTMB(abund.all ~ Dist_edge_std +Dist_trail_beginning_std +Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">abund.all.glmm = glmmTMB(abund.all ~ Dist_edge_std +Dist_trail_beginning_std +Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$abund.all) </v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -4951,31 +4973,35 @@
       <c r="L13" t="s">
         <v>77</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="O13" t="str">
-        <f xml:space="preserve"> CONCATENATE(B13, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>abund.nat.glmm</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S13" t="s">
-        <v>324</v>
-      </c>
-      <c r="T13" t="s">
-        <v>320</v>
+        <v>417</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">abund.nat.glmm = glmmTMB(abund.nat ~ Dist_edge_std +Dist_trail_beginning_std +Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">abund.nat.glmm = glmmTMB(abund.nat ~ Dist_edge_std +Dist_trail_beginning_std +Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$abund.nat) </v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -5016,30 +5042,31 @@
         <v>83</v>
       </c>
       <c r="O14" t="str">
-        <f xml:space="preserve"> CONCATENATE(B14, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>abund.nind.glmm</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S14" t="s">
-        <v>324</v>
-      </c>
-      <c r="T14" t="s">
-        <v>320</v>
+        <v>417</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">abund.nind.glmm = glmmTMB(abund.nind ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">abund.nind.glmm = glmmTMB(abund.nind ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$abund.nind) </v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -5080,30 +5107,31 @@
         <v>89</v>
       </c>
       <c r="O15" t="str">
-        <f xml:space="preserve"> CONCATENATE(B15, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>abund.nind.glmm</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S15" t="s">
-        <v>324</v>
-      </c>
-      <c r="T15" t="s">
-        <v>320</v>
+        <v>417</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">abund.nind.glmm = glmmTMB(abund.nind ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">abund.nind.glmm = glmmTMB(abund.nind ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$abund.nind) </v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -5144,30 +5172,31 @@
         <v>94</v>
       </c>
       <c r="O16" t="str">
-        <f xml:space="preserve"> CONCATENATE(B16, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>prop.Talpha.glmm</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S16" t="s">
         <v>326</v>
       </c>
-      <c r="T16" t="s">
-        <v>320</v>
+      <c r="T16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">prop.Talpha.glmm = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">prop.Talpha.glmm = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -5208,30 +5237,31 @@
         <v>100</v>
       </c>
       <c r="O17" t="str">
-        <f xml:space="preserve"> CONCATENATE(B17, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>prop.Talpha.glmm</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S17" t="s">
         <v>326</v>
       </c>
-      <c r="T17" t="s">
-        <v>320</v>
+      <c r="T17" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">prop.Talpha.glmm = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">prop.Talpha.glmm = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -5272,30 +5302,31 @@
         <v>105</v>
       </c>
       <c r="O18" t="str">
-        <f xml:space="preserve"> CONCATENATE(B18, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>prop.Falpha.glmm</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S18" t="s">
         <v>326</v>
       </c>
-      <c r="T18" t="s">
-        <v>320</v>
+      <c r="T18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">prop.Falpha.glmm = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">prop.Falpha.glmm = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -5336,30 +5367,31 @@
         <v>111</v>
       </c>
       <c r="O19" t="str">
-        <f xml:space="preserve"> CONCATENATE(B19, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>prop.Falpha.glmm</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S19" t="s">
         <v>326</v>
       </c>
-      <c r="T19" t="s">
-        <v>320</v>
+      <c r="T19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">prop.Falpha.glmm = glmmTMB(prop.Falpha ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">prop.Falpha.glmm = glmmTMB(prop.Falpha ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -5400,30 +5432,31 @@
         <v>116</v>
       </c>
       <c r="O20" t="str">
-        <f xml:space="preserve"> CONCATENATE(B20, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>prop.abund.glmm</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S20" t="s">
         <v>326</v>
       </c>
-      <c r="T20" t="s">
-        <v>320</v>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">prop.abund.glmm = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">prop.abund.glmm = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$prop.abund) </v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -5464,30 +5497,31 @@
         <v>122</v>
       </c>
       <c r="O21" t="str">
-        <f xml:space="preserve"> CONCATENATE(B21, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.btotal.glmm</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
       </c>
-      <c r="T21" t="s">
-        <v>320</v>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.btotal.glmm = glmmTMB(all.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.btotal.glmm = glmmTMB(all.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -5528,30 +5562,31 @@
         <v>129</v>
       </c>
       <c r="O22" t="str">
-        <f xml:space="preserve"> CONCATENATE(B22, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.btotal.glmm</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S22" t="s">
         <v>326</v>
       </c>
-      <c r="T22" t="s">
-        <v>320</v>
+      <c r="T22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.btotal.glmm = glmmTMB(all.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.btotal.glmm = glmmTMB(all.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -5592,30 +5627,31 @@
         <v>135</v>
       </c>
       <c r="O23" t="str">
-        <f xml:space="preserve"> CONCATENATE(B23, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.brich.glmm</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S23" t="s">
         <v>326</v>
       </c>
-      <c r="T23" t="s">
-        <v>320</v>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.brich.glmm = glmmTMB(all.tax.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.brich.glmm = glmmTMB(all.tax.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -5656,30 +5692,31 @@
         <v>142</v>
       </c>
       <c r="O24" t="str">
-        <f xml:space="preserve"> CONCATENATE(B24, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.brich.glmm</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S24" t="s">
         <v>326</v>
       </c>
-      <c r="T24" t="s">
-        <v>320</v>
+      <c r="T24" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.brich.glmm = glmmTMB(all.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.brich.glmm = glmmTMB(all.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -5720,30 +5757,31 @@
         <v>148</v>
       </c>
       <c r="O25" t="str">
-        <f xml:space="preserve"> CONCATENATE(B25, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.brepl.glmm</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S25" t="s">
         <v>326</v>
       </c>
-      <c r="T25" t="s">
-        <v>320</v>
+      <c r="T25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.brepl.glmm = glmmTMB(all.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.brepl.glmm = glmmTMB(all.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -5784,30 +5822,31 @@
         <v>155</v>
       </c>
       <c r="O26" t="str">
-        <f xml:space="preserve"> CONCATENATE(B26, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>all.tax.brepl.glmm</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S26" t="s">
         <v>326</v>
       </c>
-      <c r="T26" t="s">
-        <v>320</v>
+      <c r="T26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.tax.brepl.glmm = glmmTMB(all.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.tax.brepl.glmm = glmmTMB(all.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -5848,30 +5887,31 @@
         <v>161</v>
       </c>
       <c r="O27" t="str">
-        <f xml:space="preserve"> CONCATENATE(B27, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nat.tax.btotal.glmm</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S27" t="s">
         <v>326</v>
       </c>
-      <c r="T27" t="s">
-        <v>320</v>
+      <c r="T27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.tax.btotal.glmm = glmmTMB(nat.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.tax.btotal.glmm = glmmTMB(nat.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.tax.btotal) </v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -5912,30 +5952,31 @@
         <v>168</v>
       </c>
       <c r="O28" t="str">
-        <f xml:space="preserve"> CONCATENATE(B28, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nat.tax.btotal.glmm</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S28" t="s">
         <v>326</v>
       </c>
-      <c r="T28" t="s">
-        <v>320</v>
+      <c r="T28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.tax.btotal.glmm = glmmTMB(nat.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.tax.btotal.glmm = glmmTMB(nat.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.tax.btotal) </v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -5976,30 +6017,31 @@
         <v>173</v>
       </c>
       <c r="O29" t="str">
-        <f xml:space="preserve"> CONCATENATE(B29, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nat.tax.brich.glmm</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S29" t="s">
         <v>326</v>
       </c>
-      <c r="T29" t="s">
-        <v>320</v>
+      <c r="T29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.tax.brich.glmm = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.tax.brich.glmm = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.tax.brich) </v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -6040,30 +6082,31 @@
         <v>179</v>
       </c>
       <c r="O30" t="str">
-        <f xml:space="preserve"> CONCATENATE(B30, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nat.tax.brepl.glmm</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S30" t="s">
         <v>326</v>
       </c>
-      <c r="T30" t="s">
-        <v>320</v>
+      <c r="T30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.tax.brepl.glmm = glmmTMB(nat.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.tax.brepl.glmm = glmmTMB(nat.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.tax.brepl) </v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -6104,30 +6147,31 @@
         <v>186</v>
       </c>
       <c r="O31" t="str">
-        <f xml:space="preserve"> CONCATENATE(B31, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nat.tax.brepl.glmm</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S31" t="s">
         <v>326</v>
       </c>
-      <c r="T31" t="s">
-        <v>320</v>
+      <c r="T31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.tax.brepl.glmm = glmmTMB(nat.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.tax.brepl.glmm = glmmTMB(nat.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.tax.brepl) </v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -6168,30 +6212,31 @@
         <v>193</v>
       </c>
       <c r="O32" t="str">
-        <f xml:space="preserve"> CONCATENATE(B32, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nind.tax.btotal.glmm</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S32" t="s">
         <v>326</v>
       </c>
-      <c r="T32" t="s">
-        <v>320</v>
+      <c r="T32" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -6232,30 +6277,31 @@
         <v>198</v>
       </c>
       <c r="O33" t="str">
-        <f xml:space="preserve"> CONCATENATE(B33, ".glmm")</f>
+        <f t="shared" si="0"/>
         <v>nind.tax.btotal.glmm</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S33" t="s">
         <v>326</v>
       </c>
-      <c r="T33" t="s">
-        <v>320</v>
+      <c r="T33" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -6296,30 +6342,31 @@
         <v>204</v>
       </c>
       <c r="O34" t="str">
-        <f xml:space="preserve"> CONCATENATE(B34, ".glmm")</f>
+        <f t="shared" ref="O34:O52" si="6" xml:space="preserve"> CONCATENATE(B34, ".glmm")</f>
         <v>nind.tax.btotal.glmm</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S34" t="s">
         <v>326</v>
       </c>
-      <c r="T34" t="s">
-        <v>320</v>
+      <c r="T34" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm = glmmTMB(nind.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -6360,30 +6407,31 @@
         <v>211</v>
       </c>
       <c r="O35" t="str">
-        <f xml:space="preserve"> CONCATENATE(B35, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.tax.brich.glmm</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S35" t="s">
         <v>326</v>
       </c>
-      <c r="T35" t="s">
-        <v>320</v>
+      <c r="T35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.brich.glmm = glmmTMB(nind.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.brich.glmm = glmmTMB(nind.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.brich) </v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -6424,30 +6472,31 @@
         <v>216</v>
       </c>
       <c r="O36" t="str">
-        <f xml:space="preserve"> CONCATENATE(B36, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.tax.brepl.glmm</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S36" t="s">
         <v>326</v>
       </c>
-      <c r="T36" t="s">
-        <v>320</v>
+      <c r="T36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.brepl.glmm = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.brepl.glmm = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -6488,30 +6537,31 @@
         <v>222</v>
       </c>
       <c r="O37" t="str">
-        <f xml:space="preserve"> CONCATENATE(B37, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.tax.brepl.glmm</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S37" t="s">
         <v>326</v>
       </c>
-      <c r="T37" t="s">
-        <v>320</v>
+      <c r="T37" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.tax.brepl.glmm = glmmTMB(nind.tax.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.tax.brepl.glmm = glmmTMB(nind.tax.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -6552,30 +6602,31 @@
         <v>228</v>
       </c>
       <c r="O38" t="str">
-        <f xml:space="preserve"> CONCATENATE(B38, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.btotal.glmm</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S38" t="s">
         <v>326</v>
       </c>
-      <c r="T38" t="s">
-        <v>320</v>
+      <c r="T38" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.btotal.glmm = glmmTMB(all.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.btotal.glmm = glmmTMB(all.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -6616,30 +6667,31 @@
         <v>235</v>
       </c>
       <c r="O39" t="str">
-        <f xml:space="preserve"> CONCATENATE(B39, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.btotal.glmm</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S39" t="s">
         <v>326</v>
       </c>
-      <c r="T39" t="s">
-        <v>320</v>
+      <c r="T39" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.btotal.glmm = glmmTMB(all.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.btotal.glmm = glmmTMB(all.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -6680,30 +6732,31 @@
         <v>241</v>
       </c>
       <c r="O40" t="str">
-        <f xml:space="preserve"> CONCATENATE(B40, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.brich.glmm</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S40" t="s">
         <v>326</v>
       </c>
-      <c r="T40" t="s">
-        <v>320</v>
+      <c r="T40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.brich.glmm = glmmTMB(all.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.brich.glmm = glmmTMB(all.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.brich) </v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -6744,30 +6797,31 @@
         <v>248</v>
       </c>
       <c r="O41" t="str">
-        <f xml:space="preserve"> CONCATENATE(B41, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.brich.glmm</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S41" t="s">
         <v>326</v>
       </c>
-      <c r="T41" t="s">
-        <v>320</v>
+      <c r="T41" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.brich.glmm = glmmTMB(all.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.brich.glmm = glmmTMB(all.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.brich) </v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -6808,30 +6862,31 @@
         <v>254</v>
       </c>
       <c r="O42" t="str">
-        <f xml:space="preserve"> CONCATENATE(B42, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.brepl.glmm</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S42" t="s">
         <v>326</v>
       </c>
-      <c r="T42" t="s">
-        <v>320</v>
+      <c r="T42" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.brepl.glmm = glmmTMB(all.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.brepl.glmm = glmmTMB(all.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.brepl) </v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -6872,30 +6927,31 @@
         <v>261</v>
       </c>
       <c r="O43" t="str">
-        <f xml:space="preserve"> CONCATENATE(B43, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>all.func.brepl.glmm</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S43" t="s">
         <v>326</v>
       </c>
-      <c r="T43" t="s">
-        <v>320</v>
+      <c r="T43" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">all.func.brepl.glmm = glmmTMB(all.func.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">all.func.brepl.glmm = glmmTMB(all.func.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$all.func.brepl) </v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -6936,30 +6992,31 @@
         <v>267</v>
       </c>
       <c r="O44" t="str">
-        <f xml:space="preserve"> CONCATENATE(B44, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nat.func.btotal.glmm</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S44" t="s">
         <v>326</v>
       </c>
-      <c r="T44" t="s">
-        <v>320</v>
+      <c r="T44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.func.btotal.glmm = glmmTMB(nat.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.func.btotal.glmm = glmmTMB(nat.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -7000,30 +7057,31 @@
         <v>274</v>
       </c>
       <c r="O45" t="str">
-        <f xml:space="preserve"> CONCATENATE(B45, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nat.func.btotal.glmm</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S45" t="s">
         <v>326</v>
       </c>
-      <c r="T45" t="s">
-        <v>320</v>
+      <c r="T45" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.func.btotal.glmm = glmmTMB(nat.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.func.btotal.glmm = glmmTMB(nat.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -7064,30 +7122,31 @@
         <v>280</v>
       </c>
       <c r="O46" t="str">
-        <f xml:space="preserve"> CONCATENATE(B46, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nat.func.brich.glmm</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S46" t="s">
         <v>326</v>
       </c>
-      <c r="T46" t="s">
-        <v>320</v>
+      <c r="T46" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.func.brich.glmm = glmmTMB(nat.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.func.brich.glmm = glmmTMB(nat.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -7128,30 +7187,31 @@
         <v>287</v>
       </c>
       <c r="O47" t="str">
-        <f xml:space="preserve"> CONCATENATE(B47, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nat.func.brich.glmm</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S47" t="s">
         <v>326</v>
       </c>
-      <c r="T47" t="s">
-        <v>320</v>
+      <c r="T47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.func.brich.glmm = glmmTMB(nat.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.func.brich.glmm = glmmTMB(nat.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -7192,30 +7252,31 @@
         <v>293</v>
       </c>
       <c r="O48" t="str">
-        <f xml:space="preserve"> CONCATENATE(B48, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nat.func.brepl.glmm</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S48" t="s">
         <v>326</v>
       </c>
-      <c r="T48" t="s">
-        <v>320</v>
+      <c r="T48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nat.func.brepl.glmm = glmmTMB(nat.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nat.func.brepl.glmm = glmmTMB(nat.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nat.func.brepl) </v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -7256,30 +7317,31 @@
         <v>300</v>
       </c>
       <c r="O49" t="str">
-        <f xml:space="preserve"> CONCATENATE(B49, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.func.btotal.glmm</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S49" t="s">
         <v>326</v>
       </c>
-      <c r="T49" t="s">
-        <v>320</v>
+      <c r="T49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.func.btotal.glmm = glmmTMB(nind.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.func.btotal.glmm = glmmTMB(nind.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -7320,30 +7382,31 @@
         <v>307</v>
       </c>
       <c r="O50" t="str">
-        <f xml:space="preserve"> CONCATENATE(B50, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.func.brich.glmm</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S50" t="s">
         <v>326</v>
       </c>
-      <c r="T50" t="s">
-        <v>320</v>
+      <c r="T50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.func.brich.glmm = glmmTMB(nind.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.func.brich.glmm = glmmTMB(nind.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.func.brich) </v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -7384,30 +7447,31 @@
         <v>312</v>
       </c>
       <c r="O51" t="str">
-        <f xml:space="preserve"> CONCATENATE(B51, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.func.brepl.glmm</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S51" t="s">
         <v>326</v>
       </c>
-      <c r="T51" t="s">
-        <v>320</v>
+      <c r="T51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.func.brepl.glmm = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.func.brepl.glmm = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -7448,30 +7512,31 @@
         <v>318</v>
       </c>
       <c r="O52" t="str">
-        <f xml:space="preserve"> CONCATENATE(B52, ".glmm")</f>
+        <f t="shared" si="6"/>
         <v>nind.func.brepl.glmm</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dist_edge_std +</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S52" t="s">
         <v>326</v>
       </c>
-      <c r="T52" t="s">
-        <v>320</v>
+      <c r="T52" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">nind.func.brepl.glmm = glmmTMB(nind.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">nind.func.brepl.glmm = glmmTMB(nind.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
       </c>
     </row>
   </sheetData>
@@ -7480,10 +7545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
